--- a/platform/云管理平台9月发布版本管控表.xlsx
+++ b/platform/云管理平台9月发布版本管控表.xlsx
@@ -160,18 +160,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>挂载/卸载云磁盘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>云磁盘保存为镜像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>云磁盘备份与恢复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CS/GW/WEB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -185,6 +173,18 @@
   </si>
   <si>
     <t>WEB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂载/卸载云主机磁盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云主机磁盘保存为镜像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云主机磁盘备份与恢复</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -859,7 +859,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>24</v>
@@ -873,7 +873,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>25</v>
@@ -898,7 +898,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>24</v>
@@ -918,7 +918,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>24</v>
@@ -938,7 +938,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>24</v>
@@ -958,7 +958,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>24</v>
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>24</v>
@@ -998,7 +998,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>24</v>
@@ -1018,7 +1018,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>24</v>
@@ -1038,7 +1038,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>24</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="24" spans="1:8" ht="13.5">
       <c r="A24" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>24</v>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="25" spans="1:8" ht="13.5">
       <c r="A25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>24</v>
@@ -1095,10 +1095,10 @@
     </row>
     <row r="26" spans="1:8" ht="13.5">
       <c r="A26" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>24</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>24</v>
